--- a/data/regions.xlsx
+++ b/data/regions.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iazuaz\PyCharmMiscProject\dotacion_predictor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E58641C-6377-4243-9E36-B39667E19E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7283F47A-2712-4C93-B36C-ADF4FCBC9D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F206ACE7-B4B0-417D-A246-7AF2C16761A0}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">regions!$A$1:$B$43</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Sur</t>
   </si>
@@ -31,9 +47,6 @@
     <t>Santiago</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Centro</t>
   </si>
   <si>
@@ -41,6 +54,132 @@
   </si>
   <si>
     <t>ZONA</t>
+  </si>
+  <si>
+    <t>Mall Concepcion</t>
+  </si>
+  <si>
+    <t>Viña</t>
+  </si>
+  <si>
+    <t>Temuco</t>
+  </si>
+  <si>
+    <t>Tda Los Dominicos</t>
+  </si>
+  <si>
+    <t>Los Andes</t>
+  </si>
+  <si>
+    <t>Concepción - Castellon</t>
+  </si>
+  <si>
+    <t>Parque Arauco</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>Plaza Vespucio</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>Crillón</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>Chillán</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Antofagasta</t>
+  </si>
+  <si>
+    <t>Trebol</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Costanera Center</t>
+  </si>
+  <si>
+    <t>Marina Arauco</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Plaza Oeste</t>
+  </si>
+  <si>
+    <t>Plaza Tobalaba</t>
+  </si>
+  <si>
+    <t>Huechuraba</t>
+  </si>
+  <si>
+    <t>Iquique</t>
+  </si>
+  <si>
+    <t>Mall Calama</t>
+  </si>
+  <si>
+    <t>Florida Center</t>
+  </si>
+  <si>
+    <t>Portal Temuco</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Plaza Egaña</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Talca</t>
+  </si>
+  <si>
+    <t>Curicó</t>
+  </si>
+  <si>
+    <t>Costanera Pto. Montt</t>
+  </si>
+  <si>
+    <t>La Calera</t>
+  </si>
+  <si>
+    <t>Copiapo</t>
+  </si>
+  <si>
+    <t>Mall Quilpue</t>
+  </si>
+  <si>
+    <t>Arauco Maipu</t>
+  </si>
+  <si>
+    <t>Punta Arenas</t>
+  </si>
+  <si>
+    <t>Nueva Alameda</t>
+  </si>
+  <si>
+    <t>Nueva Valdivia</t>
+  </si>
+  <si>
+    <t>San Bernardo</t>
   </si>
 </sst>
 </file>
@@ -901,302 +1040,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30E0C3F-18E1-40CD-A9FA-6626827EDA52}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>11</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>18</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>26</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>29</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>34</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>37</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>40</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>45</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>47</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>51</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>68</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>69</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>85</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>88</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>97</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>506</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>508</v>
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>515</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>517</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>522</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>531</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>542</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>547</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>558</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
@@ -1204,546 +1345,50 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>48</v>
+      <c r="A38" t="s">
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>58</v>
+      <c r="A39" t="s">
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>60</v>
+      <c r="A40" t="s">
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>61</v>
+      <c r="A41" t="s">
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>72</v>
+      <c r="A42" t="s">
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>77</v>
+      <c r="A43" t="s">
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>509</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>510</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>511</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>512</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>527</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>528</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>529</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>543</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>544</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>545</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>559</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>19</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>28</v>
-      </c>
-      <c r="B60" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>30</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>55</v>
-      </c>
-      <c r="B63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>78</v>
-      </c>
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>84</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>505</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>507</v>
-      </c>
-      <c r="B67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>514</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>516</v>
-      </c>
-      <c r="B69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>523</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>525</v>
-      </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>530</v>
-      </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>532</v>
-      </c>
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>539</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>548</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>550</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>557</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>800</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>998</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>14</v>
-      </c>
-      <c r="B82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>17</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>23</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>49</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>57</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>71</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>74</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>76</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>96</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>98</v>
-      </c>
-      <c r="B91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>103</v>
-      </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>502</v>
-      </c>
-      <c r="B93" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>503</v>
-      </c>
-      <c r="B94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>504</v>
-      </c>
-      <c r="B95" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>518</v>
-      </c>
-      <c r="B96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>519</v>
-      </c>
-      <c r="B97" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>520</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>521</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>534</v>
-      </c>
-      <c r="B100" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>536</v>
-      </c>
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>537</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>551</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>584</v>
-      </c>
-      <c r="B104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>902</v>
-      </c>
-      <c r="B105" t="s">
         <v>3</v>
       </c>
     </row>
